--- a/tests/data/output/single_sample_reports/cell_soliddist.xlsx
+++ b/tests/data/output/single_sample_reports/cell_soliddist.xlsx
@@ -441,37 +441,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>391 K</t>
+          <t>118 C</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>544 K</t>
+          <t>271 C</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>694 K</t>
+          <t>421 C</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>841 K</t>
+          <t>568 C</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>989 K</t>
+          <t>716 C</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>1137 K</t>
+          <t>864 C</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>1225 K</t>
+          <t>952 C</t>
         </is>
       </c>
     </row>
